--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/44_Karaman_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/44_Karaman_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73A9C0CF-F52D-4BA2-853C-D619B7F7AC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5959A566-9EFB-435C-A95E-8B6012E5ED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{412FDE3E-9D31-4F2C-A0C0-6990C7C1FDC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{1050FE38-F623-4464-90A4-6212801627EB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -949,14 +949,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C89ABE0A-70B1-4526-A3BA-27868E391E3B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{015DE63E-C29B-4FDC-A64D-EEEA94DE2D14}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{D878B230-810B-4FFB-B7A0-3504DA4E40B2}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{D5A054DA-4223-4B1A-B239-A7457B375366}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{6F42629D-07D3-4388-A5B0-ED105A3FB23A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C33A8F42-4CFE-41A3-ADE6-25728648764A}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{6D28C6C8-A7A5-4D2B-A5C9-C586DD778157}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{DF245801-26A2-4711-AD6D-ACC7D4C68C76}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B2E3C4CB-F291-4495-ADC4-749BB9CF4AA2}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7B5238E3-DBF3-4424-BC3B-4865E7F995CA}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{2053DB22-A499-4D9D-8E4C-120804712F74}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{5D9E8BAE-08BB-4135-9535-8D11EA16A7E4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DEF4FEEF-A82F-415B-A28B-23B8B01D222B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6A0C6244-7DA8-42A9-A0B1-C82A05E40183}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{D5642CAD-FC50-4016-B9E9-B9B347B6DB07}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{AA6226F6-E94C-4D74-938E-97F578FB7ED4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BD54FD-863A-4C66-BDE3-65C3994863E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB561001-EEFB-4BE5-9B42-72A56770D164}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2593,18 +2593,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D72EA08-0E7E-433B-BCB0-69C58320DCF1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57B16803-6653-4A61-A5C5-92BF70032066}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B30D11E-C534-4B47-AB75-91979B463097}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{44949711-E6AF-4AB5-B7A9-615C320DE88B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09EE710F-C77F-4B99-B6F8-1C3BA79A3262}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{550BAC96-7D69-4F08-B138-27941879233F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C533475-09AF-4E41-AA56-7C487F274EFF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFFBA838-55B4-48EA-8793-001BBD1F1C9F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F5E1022-ABEA-4A0B-B4AF-8E0F10552678}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6EFB0204-A1E9-4851-B276-9149C6C08B21}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3BE514A5-B63A-4A21-8F87-7D15396C2839}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7525AD9-58A2-4A6E-BED0-FDB0A439CC2E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4515B88-57FC-4716-8F14-8366BE301659}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D6BB70C-2AF2-4EB2-9D00-A4B4A05C23A4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC540C63-E072-4806-B696-86D861765A28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04FAC49B-F8A3-4751-B768-789096D05CF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F614238B-BE4A-43D6-839E-9E89847F5663}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{018D4C96-CBF7-40E1-BD31-A9E6E2F0E843}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE904F97-928C-4F62-9C2E-15D1D7AA0322}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{804371E5-4D0B-4921-ADC4-564DCF455920}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{85921558-9D92-4FB1-88B4-311E31CEEB65}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{70055F58-6EEA-4B3D-92FB-C7F781FC042E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{687BE614-D183-4864-A95D-CBC5DA638808}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC18EEC7-EEDD-4D70-BA21-9FE0C35300D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2617,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F05B37-FA05-4BDB-8A71-C3B8972DEB69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4287A042-7CA2-41A2-BAA5-FC36625E6DFC}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3864,18 +3864,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{819E6E83-A1A1-4978-AF67-1B615B21267E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58FF52E5-F199-4D9B-B0C7-01CFDC7BC451}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B43B149-EFD2-448C-96E1-46468735779F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7BEC404F-93F3-4FB9-ADBC-82BBE0BAFC5A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{077F99F1-BE7D-40AE-9142-F51383B2155C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E9409AC0-00F5-494F-BEBA-2EAC11CBEDF6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{867328DB-63F4-4C02-A61D-A7319CB75B4F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D209AC19-71C6-4C0C-9EAD-49B45F9DC375}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3726B632-B573-49E2-B1A4-33919CA9B0E7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A6987D9D-3DE5-4E97-9139-174CA55C1145}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6696577-8B2C-4352-9D82-2DC5E6DDCCD3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7320A89E-5C63-4FE7-AE25-DD6E85B0FBDC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E61F2DDF-EB29-4A98-AC8E-E47660292728}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24D0F13D-1F76-4E76-AC3B-295B320B84B5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA672944-ABD6-49DE-ADD4-A203AB5A2AAA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0416E22-DF24-4BC5-9A0E-19E511A65198}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80AE831A-3784-48E1-8421-7AB991D82518}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{17B837BD-F942-474F-9866-321001DEACD8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CC20D14-AD7A-413D-B3E1-2E284BE6C4FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C8E9EFC-C9EB-42B0-A51C-E7C0D15571F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{456C67DF-A938-4CA3-A0AA-38A1ACC369B7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6C756886-B3FA-44B8-82A9-6F13547B69F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89B451C2-EF55-4730-B49A-D70A7ADD791F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB826388-090B-49C3-965C-6AB4EC3C7245}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3888,7 +3888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5419394-6514-4F99-A938-8CB0BED56085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE7B361-8AF7-4924-8B7A-0BCB05DE60DD}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5135,18 +5135,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E01B1F4-B35E-49E4-A8DE-9EBB84334D68}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A82DF41-D8CE-4CF7-B5E2-16746370CA2A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0EFB2979-C65C-4FE8-8FDB-E42795CB94B8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{22017366-9586-4D5C-BB93-03FC476B134C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE46A7B4-01C9-4998-A360-E4E64027A2E2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CA0FABCE-022D-4699-A125-EACF5253BD7B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E220DF9D-26D6-4615-AD7C-93A5FA19052E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48D3DD20-9ABC-40A8-8652-57D8736E7C51}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5A3F198-729E-4219-8759-0DD8340B8781}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A68CC61C-A55B-4AAD-BC5A-BBAF1F283733}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BA82524-A2C9-480D-990E-8B240CB5974B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{930BF2EC-CB89-442A-BA8E-3A4045CE5C9C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78E6D4B2-AF6F-4C17-95D9-811ED04982CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A1355A8-CB01-4C77-9DBB-0C6777693218}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A72A480C-03DC-4C05-ADEE-14F623703913}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94D664D3-4889-4156-BE89-4DA5CF88E474}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F2D7BF9-7C65-48B5-97E1-00FB52ACD880}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{938A5EF5-4D05-4B1E-981B-C70DFCFBA1FD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6010D01-B112-4D81-B6A3-FCA45BF73A95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{361FEA31-01A5-4FA8-B5DB-825BF6C0591E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDD41485-F35B-4215-9D27-F64F839F13D3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{05049A2E-459F-4992-B6EB-C3D2B8CE3B9E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65CFAFD6-07DC-4BB4-9193-2B529B21311D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2C77AE2-0D30-4D67-9716-4A0318A8C861}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5159,7 +5159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A0D64D-34C3-4156-893C-FC3CDB578343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2931DA4B-B19D-4937-B05E-99478441E403}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6388,18 +6388,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AAE8078-34A2-4DA1-BD0E-C116259E5E72}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A5284A0-C411-481D-8E56-060BDF1E9CD8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{94D6A278-6A86-40A0-9F62-77332D13E8A4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{42F73D65-CDB8-4AC4-9FD6-2DA08DF3E179}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E6CE950-2167-4B03-980B-47E94735348B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{67CFD3A2-F796-449F-A65E-671C1924E618}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60A3C72F-A0FC-4B82-AA59-89DACBB21DA3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05385FDF-4A1B-4612-A9C6-B52B4940C0C1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDA96A09-FCDF-4AF5-90C2-6E703495F637}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B2A27945-8F38-4BFC-B9B9-BE35AB5FAC52}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8565DEEF-228C-49DC-8253-688955F29E8A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC99519E-8CE8-4245-8392-8440BA4AB616}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A6CA7F8-841C-4EF8-B049-5576E2A10E89}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADD3C5C4-D0B7-4BBB-8FC7-53BF3AAE9BC4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4253931B-FF96-461C-9E3A-B8E9A0C90D13}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5A12627-CE41-42AF-9357-782C34F66A80}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF764A81-126E-4AB5-8FE2-72A0D3136A03}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{391A4A42-0905-486F-ABAA-18AF48E40FDE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52D5D753-5E00-43D8-9FBF-5EB1620B75CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E29BD42D-69D8-453E-821F-8AEEF788E08A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0C039F5-432E-4DEC-823A-58F1657ACD5D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{75492BCE-1C34-4804-A08F-7B3297A284B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61F92FCB-370C-4AFD-AF4B-103B9F0245E2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1ED9A5D4-482C-4A6D-AE70-048A16AEE3A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6412,7 +6412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798739BA-A469-4E3B-9F6F-10F7B09A7C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEFFD24-D9C5-4A2C-83C6-01B16BD8A800}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7677,18 +7677,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34B5F7FC-C286-4C06-8D9B-A4260B586E5F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09A47F2D-F542-4B34-B0DD-728773363DD8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1565FB5E-CDFB-42ED-A4C3-672AC1648CAF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC342411-60D8-4EDD-8685-6749E33AAEE4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{744318E9-034C-44B5-B719-63048E0D068E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{255F6F66-0B63-4F6A-B796-2BF5C37B87D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{299BA314-F4B4-4676-86F6-853317BA9063}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{836BC752-4E76-472F-B33B-6B35E908D83A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09A3EC99-E6BF-423D-B3DC-8CD1EFF88CD6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BF8CC5D8-1A10-4C1A-A16F-A21272DE0E9B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BA62778-D020-4327-B698-5D011F34113A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0621C82E-A602-4BC2-A947-B221B215CE2C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D73270D2-7F2A-4509-AA30-84C6D460CDAE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83EF3840-A925-4D68-BC44-6DFF8B251DB9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{47A462EC-8B7F-4BC5-B172-A4A2261E40BD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA1C1D5E-EE75-4672-83B9-32E68A848C09}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4611191F-7652-47D2-A89D-55B60543828C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AD1E9230-923F-46DF-B1A1-366BF6E99125}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A1272B7-948F-40D1-A924-FD99FFC83641}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36FB4341-BFDF-48A8-96DB-D78DAE67ED5C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6E408B9-8E02-4031-99EA-F181CC980BE8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4E28CBEE-7FCE-41AF-B930-92C4A2BAFA89}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59C49E7F-485F-489E-9398-19CEDD180ABC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38765F04-F512-439F-A52B-3EAE58B21664}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7701,7 +7701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811B5BF6-6036-483C-A967-6BA2238183AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E72D4D8-841E-411E-BA97-E53FF9FCABAB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8966,18 +8966,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A657E544-1846-403E-807D-648AADDE446A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D72D1BE-F727-4F1D-B800-C58D728EB92C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{00ED43F6-BBD4-4C35-869B-3728D9EADC68}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5AA9C85B-CE40-427B-A2F6-4F897C22FF7A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE00B1DE-F093-45D0-AD85-3392808D7128}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{852B98D9-07C6-47FB-8BBC-C8955841A68C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8AF9BB8D-42A8-4E63-B88D-91544ED97AD0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C50C927B-5820-4141-913E-F0B3306A68F5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3479EC73-F8B7-41DC-ADAE-96BA3E7021BF}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3F14C52E-3E87-4343-AB35-56DD5CEEA505}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BEF127F2-6154-494E-BA71-DD9F656CF073}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{093FACBB-511A-44AF-8C47-9888DFDF4D59}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20B5C68E-6CEF-4789-A026-29DD5A21535F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9911879E-EF3C-4372-8586-47B4D3735E9C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C2C695E-6A58-4DE6-91C3-629CC2116DEC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D945AEDC-C0C2-46BD-9557-36BE1902B488}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{924E0B1E-C3AC-4F3E-ACCC-F38EDDA801AD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C2A2EA0-3686-4320-A237-B08E12289B48}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31497145-FC70-45C2-A5D3-C8578E3F0B75}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC7AA147-30F7-484B-B758-602A5AA7D652}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C5CE4D07-91DC-45C4-ACC2-A3D8E842B810}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4F3B1251-9B7B-4A15-AA8D-E02B204F642A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90E05B09-0975-47BE-BBAA-DE663A1C3D3F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54C5469D-B667-47B5-847A-9B0875C00C9B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8990,7 +8990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8304430E-4193-4D10-92DA-C2B8884AAA36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF269EBA-30F4-4BC5-B157-577764F1F528}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10255,18 +10255,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20FA71DC-1875-44F5-8F17-EA92A1B2527C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6B0B5CA-B0E6-462E-A264-FC2A84AC903E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{254BDDB5-ECA0-42C1-B8DC-DF7F9FC27862}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{016D58D0-F71D-4369-A406-D9A0F0FBB696}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E37E35A5-5E61-4F36-A7FE-237B7A87C964}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F64B9524-DAC7-4A32-95FD-96C020A15050}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB533C07-DDEE-4C2E-BF17-6B4324FA6166}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11015E78-3380-49DA-85DB-ECF4278AC811}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E26FB9F5-6608-46D4-AED3-600A3F0A4FB4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0AA33BF8-D76C-4915-A5CA-FFAFE108E173}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29C8EC10-BB17-41A4-8966-B8021676BE0C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBE34700-A693-4DF3-BD60-156438501122}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE149FC3-D125-49ED-B64A-1673ED0C2916}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50A43204-0156-4207-860A-DFB46D3CFB64}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{87BD4837-D7D1-43A7-ACCF-82466758B2EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC906473-21ED-4D17-B913-4C981EB16F9F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F6A86953-2A09-4797-A314-607D7217BCE0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F7B21AAD-E18C-434E-B067-B9EEC5B30F66}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5555E224-37C7-4376-A2EE-A8A3FDC69757}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57F623E1-9322-48D6-8B15-D2540E005BFC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F6E3515-E854-4401-81E2-216866D421BD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{37F9C209-A1DA-4879-808B-04FF5DD5C839}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{688E8432-9053-4D58-B71E-23C6FDE1532A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6C34B30-AE38-4548-A939-A06907602EFC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10279,7 +10279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22A320F-EA23-45A6-91FA-EEAC32458DA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC3FE15-C381-4F87-AA16-90CDCDB8C6F1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11544,18 +11544,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DBEB34A-7581-4E3B-A845-510EB4E390BE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{845EC854-585A-485C-B17A-49E6148EEEFD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5AEC60F0-5C1B-4AD4-96DC-E7B4963EA172}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{18AFABE9-630A-47B8-903A-227AF9F1AB34}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3519C697-82CE-42CD-9B49-5EC600C9B611}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{890B3973-DB10-4293-A532-50340DBCFBC9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF3721D3-C39D-41CC-984A-9B27FAEE397D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A570AF31-DD2B-4E42-991F-86C662436CE1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B07AC98-B25E-4192-805C-9631CF7AD175}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{74C48692-5BF2-46E2-AB5B-A5F7DDC0ED88}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2285726-1AEF-493A-8057-F5F956A9E217}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A98B4D66-A941-469E-9811-7FBC86B01810}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C756DB9-8C5A-4E1C-92F2-5BF9A12AEB42}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC9E50EF-29D4-4A43-90D8-034D9A2F2576}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3A9E3F3E-E681-449B-B716-DEE29DCEF405}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8C688E9-7C69-4C9C-B9F6-AD26E791F71D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{035F4BF9-BB7A-48E9-A5EF-02EBF451C14E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{44F7B786-49C7-4A06-A7CF-99388A525CBB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0DFB14E-090A-436A-95DE-D883C5CE81F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58916527-A837-4C4E-9195-5F15F89C149B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{271DF0C1-E9E8-4023-BAA1-710636E3ED2B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2A9EAC5B-D754-4A6F-A9D1-F2A0FF82D095}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4BD5ACB4-D905-4245-80ED-02885C7ADA57}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7FB85A8E-DEED-4DA1-ABFA-7DFFE6010EFC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11568,7 +11568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456DF5B8-1512-4CBC-9AE9-884933B553EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3AB1CA-B4B1-4A8A-9F15-87B1D774F2B7}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12825,18 +12825,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F5CF24E-1173-4832-8149-909C65C626E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{407A8615-D90A-4F87-A0E4-2D62BC234EA6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F5C8AF9-8A8D-4D82-82BC-60C77C1BD66E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{611A5939-4915-43E6-A867-D31A470825A1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98CA76F1-AA07-4F32-81A1-8E1FEDE5AFC1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F3A377B-3ABD-4B73-A507-A4289907821C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BFA2A7D-935D-4F75-9F0B-C4B241648D1A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6FF70D7-9D55-41F2-A437-5447F0C4EA51}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7ED03E00-217B-4B5E-904C-7306B01A921A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{18613253-2B6C-4CAF-B6BD-A373F5232125}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A745491-2043-4526-9087-0958015DCE7C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F6CD0CE-12A0-4A7A-968B-74512C1DD686}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C0AACBD4-7087-4F97-A2D9-2B82F6218E02}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F05C8C67-2E5F-4A38-B6B3-68435280FADB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA6E50F2-D7B2-4FDE-A630-A44F54A81C84}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B7B9D72-DBB9-4D75-B25D-E09DAE7810DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC3C373D-1B4E-474A-BC7F-BAFEB16F7442}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CA4560D8-6A5C-4110-BA17-54B75E398342}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA90B107-BE40-4A87-8847-034009EE413B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BB332D2-7FFC-49FD-BC8D-AE42D6AFB3B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C963A65E-51E3-44C2-B6E0-5F9A97B6DA26}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{00E43F43-7D24-43EE-9707-0F36FECF6094}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31085579-B693-40AF-A18E-F4B5DE3F9963}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60B1712A-61A6-46BF-BE14-A086FB761162}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12849,7 +12849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DBEC70-A732-406A-B7B5-897A85EB2859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF26706F-BDC2-46B8-B4FD-2105096EE26C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14096,18 +14096,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D6C2DFA-4A89-424B-BAC1-1F4B6BFD1B05}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56707FBE-CE4D-4D68-956F-113087861DFB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9750B474-454E-435F-A767-34EF610FB0A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B266D5D9-2EB3-46CD-A6B1-42E1D95C772F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66988D57-A5C6-4871-BF18-5B1F751910DD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{86B6113A-6102-45C7-BD30-B9B94B4A7544}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5948FC5B-F293-4EE8-9412-44390537A4C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F765A56-BB4C-4254-84E1-F50CF00AF10E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E893EBC-0AA2-4B74-A082-FEBCE5BAE721}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A7F387B3-97C6-4302-A318-7BBEE07C4582}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CEB58A4-9381-45EE-965A-ACA3EE04AD6E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EEDC5068-CD4F-4A85-AE67-5C782FC793CB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01784647-0E03-40BD-ADFE-60E52794FB4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7569B820-8D3B-470A-B16E-111CD129E214}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{22290EE7-1B8F-44E5-A486-9A7216BBF9EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27F4CA35-CB55-42B0-A1AD-2B846C01A0F6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE7DD419-858B-4938-9E6D-B87AE197C811}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{418EA6E8-58B9-4E17-9790-13910D0C5AF9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E8543CE-389B-47BC-B2E4-C515EF710E92}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8A80412-E463-4C1D-A53A-BD230EED1733}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B01B57E-DD38-4FC1-92B7-F780C08A300C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3987C3B6-4DA2-4CC6-A348-87111952E2FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CDCC599-342A-466F-9BAF-E2B65B07F6A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF2AEA57-A431-45F4-A771-6CC9ADB28616}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14120,7 +14120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5CDE62-C1E5-4EC6-BB3B-9A08BC9BCC3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCD1415-FC9C-4CA9-88E9-3F81C46E8048}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15367,18 +15367,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FAE7415E-13DA-48DF-8239-C4033782A416}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8431D1C3-420C-4F2D-ACD6-2FBD68051E33}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D6479AA0-9075-4446-BB96-5DF273F5E9D1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BCFE27F2-55BE-4F6C-9299-943E109269E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF53548E-CC8F-4259-B71F-1440422B8CC8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2E57B6FE-8C81-46FB-BAF6-E6A2BD9BA298}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE9A7812-86BF-4D21-A289-23C2A78A54BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6B9C34D-A3FB-48DB-BFA7-DA3279C17B30}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{79E6DC33-13A8-498B-BB4D-5C112A48F392}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ABE6E826-B4EC-4055-A101-4E7636E3600C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D485CD79-3A2B-459A-ACA0-C329D8A83A5D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{887108E1-454A-4CA7-B50D-C3043C072021}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D283C13F-8244-451E-B7A7-CCB5FB16987E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A55BA3B2-EDFC-46AB-B0EE-24728D616E74}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{471A1C90-6DE2-46CA-9182-784775C112CC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80312C3B-51CA-4846-8796-5A97EFD28188}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADE4F8F2-6558-4C5A-95AD-2CFB1BCA4DB8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5E501761-06F7-4F88-A1DB-9D7E05749CF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CC79206-BF26-4284-8766-35F23FD1AA32}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92EBC56E-5CD3-413B-98D6-C34CB6712ECC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4A07442-AAE9-41A5-AA84-8E2BE1CCD6D9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{25CE25D6-A4E7-498E-B169-6F09410A702A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1212634-EF97-4DAF-8963-89A6159E1581}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21591A8D-DD61-46D9-B5BD-63C960A9D3C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15391,7 +15391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DFFB2B-806F-4F36-ABBA-9028CF7830D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C664D927-50DD-4CFC-9BE9-F2E65C1005AC}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16638,18 +16638,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC3FA5AF-B5B5-4710-9C1E-5E136051C997}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E7D619E-0E57-4794-9754-2D5221A4BD95}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{12E7AE02-0BF7-4D2C-A530-097F7B1908CF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E64F91B1-7328-4A96-8F73-5F96A74143BE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10695ACA-CE01-4AD6-A7F8-9E764083927A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C9F79B73-2749-4E08-9550-CBC58F274BD9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5423F50-5A72-427E-B0D8-2454AC6C858C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78A32ABA-99F5-4B4E-A5B2-644EE11732A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3DEF769A-5AB4-4068-8927-5B1E4B916D28}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B94753A4-46C8-48D5-8CD0-47A1673FA70B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8008E1F-4E18-4E4A-98A2-F56AB25F3D13}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8534919-8872-4F9A-8950-D2BDA8A55B00}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02A950E0-3218-43A5-AD0A-3D64C0936AAA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1941BC0C-2C03-4A72-8111-1C4FCEF57AB1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EF1D4A89-8287-403E-8188-4B8A0443F01F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{043DD25D-3BBE-44A0-A7C5-79831A250DF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D629EDBD-F5D5-493A-B9F5-2A5A23228F4F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{90046E1B-86BA-4AA0-869F-3F1CDF1B6A43}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C851B3F8-3247-478D-A62A-317492B41C71}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8DC8800-21CC-4FC4-8A68-9925F4B47DC7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC76B445-425D-4962-811A-58A10A829ABC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BCF1882D-7E30-4B1E-BDC0-D6DA877BE70D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B951BEBF-9342-4EAB-89FE-E3A0D993849C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7AEC7E8-29F6-4BB0-AC47-5B46857B954B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
